--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.94460233333334</v>
+        <v>16.782487</v>
       </c>
       <c r="H2">
-        <v>83.83380700000001</v>
+        <v>50.347461</v>
       </c>
       <c r="I2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="J2">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N2">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P2">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q2">
-        <v>589.2702605834031</v>
+        <v>0.2633563801663333</v>
       </c>
       <c r="R2">
-        <v>5303.432345250627</v>
+        <v>2.370207421497</v>
       </c>
       <c r="S2">
-        <v>0.9054785623220399</v>
+        <v>0.03417299218411679</v>
       </c>
       <c r="T2">
-        <v>0.9054785623220399</v>
+        <v>0.03417299218411679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.94460233333334</v>
+        <v>16.782487</v>
       </c>
       <c r="H3">
-        <v>83.83380700000001</v>
+        <v>50.347461</v>
       </c>
       <c r="I3">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="J3">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N3">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P3">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q3">
-        <v>9.02650709296678</v>
+        <v>5.420983849980334</v>
       </c>
       <c r="R3">
-        <v>81.238563836701</v>
+        <v>48.78885464982301</v>
       </c>
       <c r="S3">
-        <v>0.01387022086815874</v>
+        <v>0.7034241533035896</v>
       </c>
       <c r="T3">
-        <v>0.01387022086815874</v>
+        <v>0.7034241533035896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.94460233333334</v>
+        <v>16.782487</v>
       </c>
       <c r="H4">
-        <v>83.83380700000001</v>
+        <v>50.347461</v>
       </c>
       <c r="I4">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="J4">
-        <v>0.9231270698117087</v>
+        <v>0.9252099721531751</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N4">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P4">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q4">
-        <v>2.458845559310001</v>
+        <v>1.445850414186333</v>
       </c>
       <c r="R4">
-        <v>22.12961003379001</v>
+        <v>13.012653727677</v>
       </c>
       <c r="S4">
-        <v>0.003778286621509946</v>
+        <v>0.1876128266654688</v>
       </c>
       <c r="T4">
-        <v>0.003778286621509946</v>
+        <v>0.1876128266654687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.273078</v>
       </c>
       <c r="I5">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="J5">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N5">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P5">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q5">
-        <v>23.006560181262</v>
+        <v>0.01712074366733333</v>
       </c>
       <c r="R5">
-        <v>207.059041631358</v>
+        <v>0.154086693006</v>
       </c>
       <c r="S5">
-        <v>0.03535210994065792</v>
+        <v>0.00222157913607609</v>
       </c>
       <c r="T5">
-        <v>0.03535210994065792</v>
+        <v>0.00222157913607609</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.273078</v>
       </c>
       <c r="I6">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="J6">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N6">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P6">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q6">
         <v>0.3524170360393334</v>
@@ -818,10 +818,10 @@
         <v>3.171753324354</v>
       </c>
       <c r="S6">
-        <v>0.0005415275340974468</v>
+        <v>0.04572945835037454</v>
       </c>
       <c r="T6">
-        <v>0.0005415275340974467</v>
+        <v>0.04572945835037454</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.273078</v>
       </c>
       <c r="I7">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="J7">
-        <v>0.03604115107650029</v>
+        <v>0.0601477084462148</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N7">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P7">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q7">
-        <v>0.09599937774000002</v>
+        <v>0.09399443562733334</v>
       </c>
       <c r="R7">
-        <v>0.8639943996600001</v>
+        <v>0.8459499206459999</v>
       </c>
       <c r="S7">
-        <v>0.0001475136017449205</v>
+        <v>0.01219667095976417</v>
       </c>
       <c r="T7">
-        <v>0.0001475136017449205</v>
+        <v>0.01219667095976417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.236046333333333</v>
+        <v>0.2655986666666667</v>
       </c>
       <c r="H8">
-        <v>3.708139</v>
+        <v>0.7967960000000001</v>
       </c>
       <c r="I8">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="J8">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>21.087087</v>
+        <v>0.01569233333333333</v>
       </c>
       <c r="N8">
-        <v>63.261261</v>
+        <v>0.047077</v>
       </c>
       <c r="O8">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="P8">
-        <v>0.9808818221599021</v>
+        <v>0.03693539111407157</v>
       </c>
       <c r="Q8">
-        <v>26.064616567031</v>
+        <v>0.004167862810222222</v>
       </c>
       <c r="R8">
-        <v>234.581549103279</v>
+        <v>0.037510765292</v>
       </c>
       <c r="S8">
-        <v>0.04005114989720419</v>
+        <v>0.0005408197938786928</v>
       </c>
       <c r="T8">
-        <v>0.04005114989720419</v>
+        <v>0.0005408197938786927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.236046333333333</v>
+        <v>0.2655986666666667</v>
       </c>
       <c r="H9">
-        <v>3.708139</v>
+        <v>0.7967960000000001</v>
       </c>
       <c r="I9">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="J9">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>0.3230143333333333</v>
       </c>
       <c r="N9">
-        <v>0.969043</v>
+        <v>0.9690430000000001</v>
       </c>
       <c r="O9">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="P9">
-        <v>0.01502525635066456</v>
+        <v>0.7602859615386125</v>
       </c>
       <c r="Q9">
-        <v>0.3992606823307778</v>
+        <v>0.08579217624755557</v>
       </c>
       <c r="R9">
-        <v>3.593346140977</v>
+        <v>0.7721295862280001</v>
       </c>
       <c r="S9">
-        <v>0.0006135079484083703</v>
+        <v>0.01113234988464835</v>
       </c>
       <c r="T9">
-        <v>0.0006135079484083703</v>
+        <v>0.01113234988464834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.236046333333333</v>
+        <v>0.2655986666666667</v>
       </c>
       <c r="H10">
-        <v>3.708139</v>
+        <v>0.7967960000000001</v>
       </c>
       <c r="I10">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="J10">
-        <v>0.04083177911179101</v>
+        <v>0.01464231940061012</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.08799000000000001</v>
+        <v>0.08615233333333333</v>
       </c>
       <c r="N10">
-        <v>0.26397</v>
+        <v>0.258457</v>
       </c>
       <c r="O10">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="P10">
-        <v>0.00409292148943331</v>
+        <v>0.202778647347316</v>
       </c>
       <c r="Q10">
-        <v>0.10875971687</v>
+        <v>0.02288194486355556</v>
       </c>
       <c r="R10">
-        <v>0.9788374518300001</v>
+        <v>0.205937503772</v>
       </c>
       <c r="S10">
-        <v>0.0001671212661784436</v>
+        <v>0.002969149722083084</v>
       </c>
       <c r="T10">
-        <v>0.0001671212661784436</v>
+        <v>0.002969149722083082</v>
       </c>
     </row>
   </sheetData>
